--- a/files/areas_allowed.xlsx
+++ b/files/areas_allowed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="areas_dec1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="areas_dec2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="areas_2" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="areas_3" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -179,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,15 +188,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,16 +204,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -409,11 +393,11 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -440,7 +424,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -448,34 +432,34 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -483,34 +467,34 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -518,34 +502,34 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -553,34 +537,34 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -588,34 +572,34 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -623,34 +607,34 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -658,34 +642,34 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="B8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -693,82 +677,82 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="B9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="B10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
@@ -795,7 +779,7 @@
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -803,31 +787,31 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="n">
+      <c r="B13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -835,31 +819,31 @@
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="n">
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,31 +851,31 @@
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="n">
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -899,31 +883,31 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="n">
+      <c r="B16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -931,31 +915,31 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="n">
+      <c r="B17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -987,7 +971,7 @@
       <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -995,31 +979,31 @@
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="n">
+      <c r="B19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1027,76 +1011,76 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="n">
+      <c r="B20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="n">
+      <c r="B21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
@@ -1117,13 +1101,13 @@
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1131,7 +1115,7 @@
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="n">
@@ -1143,19 +1127,19 @@
       <c r="E24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1187,7 +1171,7 @@
       <c r="I25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1219,7 +1203,7 @@
       <c r="I26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1251,7 +1235,7 @@
       <c r="I27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1259,7 +1243,7 @@
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="n">
@@ -1271,19 +1255,19 @@
       <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1315,7 +1299,7 @@
       <c r="I29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1323,7 +1307,7 @@
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="n">
@@ -1335,19 +1319,19 @@
       <c r="E30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1355,7 +1339,7 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="n">
@@ -1367,27 +1351,27 @@
       <c r="E31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="n">
@@ -1399,19 +1383,19 @@
       <c r="E32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="7" t="n">
+      <c r="F32" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,13 +1417,13 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,7 +1451,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1475,34 +1459,34 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1510,34 +1494,34 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1545,34 +1529,34 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1580,34 +1564,34 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1615,34 +1599,34 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1650,34 +1634,34 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1685,34 +1669,34 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="B8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1720,82 +1704,82 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="B10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
@@ -1822,7 +1806,7 @@
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1830,31 +1814,31 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="n">
+      <c r="B13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,31 +1846,31 @@
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="n">
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1894,31 +1878,31 @@
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="n">
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,31 +1910,31 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="n">
+      <c r="B16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,31 +1942,31 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="n">
+      <c r="B17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,7 +1998,7 @@
       <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2022,31 +2006,31 @@
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="n">
+      <c r="B19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,63 +2038,63 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="n">
+      <c r="B20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="n">
+      <c r="B21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,10 +2108,10 @@
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2139,7 +2123,7 @@
       <c r="I23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2147,7 +2131,7 @@
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="n">
@@ -2156,22 +2140,22 @@
       <c r="D24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7" t="n">
+      <c r="E24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2203,7 +2187,7 @@
       <c r="I25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2235,7 +2219,7 @@
       <c r="I26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2243,7 +2227,7 @@
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="n">
@@ -2252,22 +2236,22 @@
       <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7" t="n">
+      <c r="E27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="8" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2275,7 +2259,7 @@
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="n">
@@ -2284,22 +2268,22 @@
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7" t="n">
+      <c r="E28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2331,7 +2315,7 @@
       <c r="I29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2339,7 +2323,7 @@
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="n">
@@ -2348,22 +2332,22 @@
       <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7" t="n">
+      <c r="E30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2371,7 +2355,7 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="n">
@@ -2380,30 +2364,30 @@
       <c r="D31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7" t="n">
+      <c r="E31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="n">
@@ -2412,22 +2396,22 @@
       <c r="D32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7" t="n">
+      <c r="E32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>1</v>
       </c>
     </row>
